--- a/data/ES + technologies + primary production.xlsx
+++ b/data/ES + technologies + primary production.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="g6myiYJkVAB/bDA6g9yJ0im6neG3bPtuCqx4vEpb3oU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="KNdqTp1NVmyqjEISdZDBxpQNLFbIFPmZM+GTLKhEDFc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Authors</t>
   </si>
@@ -516,15 +516,6 @@
     <t>Walnut-fruit forests (WFF) in Kyrgyzstan are biodiversity hotspots, provide important ecosystem services, and are of economic value yet currently suffer from a lack of sustainable management. We analysed current agroforestry practices through a series of interviews with farmers and reviewed the input-output data for 5 years of hay and walnut production for three case studies. The interviews showed that hay-making and walnut collection are the primary agroforestry practices in the WFF and have clear economic importance. Walnut in particular is a source of additional income for farmers and hay-making activities are strongly influenced by the need to winter cattle in these regions. The low reliability of interview data limited the planned analysis of profitability of case studies. Walnut production, however, is difficult to calculate because it is highly dependent on weather conditions and cropping practices between walnut trees (Juglans regia L.). This study highlights the need for improved agroforestry technologies in the WFF and identifies potential means for a sustainable, multi-purpose management of the WFF with a special focus on income generation.</t>
   </si>
   <si>
-    <t>Silva Moreira, Sandro Lucio; Acioli Imbuzeiro, Hewlley Maria; Silvert, Colby; Schuhmacher Dietrich, Otto Herbert; Pimentel, Leonardo Duarte; Alves Fernandes, Raphael Braganca</t>
-  </si>
-  <si>
-    <t>Above- and below -ground carbon accumulation in cultivated macauba palm and potential to generate carbon credits</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Tonti, Natalia E.; Gassmann, Maria, I; Perez, Claudio F.</t>
   </si>
   <si>
@@ -874,15 +865,6 @@
   </si>
   <si>
     <t>The INTENSE project, supported by the EU Era-Net Facce Surplus, aimed at increasing crop production on marginal land, including those with contaminated soils. A field trial was set up at a former wood preservation site to phytomanage a Cu/PAH-contaminated sandy soil. The novelty was to assess the influence of five organic amendments differing in their composition and production process, i.e. solid fractions before and after biodigestion of pig manure, compost and compost pellets (produced from spent mushroom substrate, biogas digestate and straw), and greenwaste compost, on Cu availability, soil properties, nutrient supply, and plant growth. Organic amendments were incorporated into the soil at 2.3% and 5% soil w/w. Total soil Cu varied from 179 to 1520 mg kg(-1), and 1 M NH4NO3-extractable soil Cu ranged from 4.7 to 104 mg kg(-1) across the 25 plots. Spring barley (Hordeum vulgare cv. Ella) was cultivated in plots. Changes in physico-chemical soil properties, shoot DW yield, shoot ionome, and shoot Cu uptake depending on extractable soil Cu and the soil treatments are reported. Shoot Cu concentration varied from 45 +/- 24 to 140 +/- 193 mg kg DW-1 and generally increased with extractable soil Cu. Shoot DW yield, shoot Cu concentration, and shoot Cu uptake of barley plants did not significantly differ across the soil treatments in year 1. Based on soil and plant parameters, the effects of the compost and pig manure treatments were globally discriminated from those of the untreated, greenwaste compost and digested pig manure treatments. Compost and its pellets at the 5% addition rate promoted soil functions related to primary production, water purification, and soil fertility, and the soil quality index.</t>
-  </si>
-  <si>
-    <t>Li, Yang; Tian, Haifeng; Zhang, Jingfei; Lu, Siqi; Xie, Zhixiang; Shen, Wei; Zheng, Zhicheng; Li, Mengdi; Rong, Peijun; Qin, Yaochen</t>
-  </si>
-  <si>
-    <t>Detection of spatiotemporal changes in ecological quality in the Chinese mainland: Trends and attributes</t>
-  </si>
-  <si>
-    <t>qinyc@henu.edu.cn</t>
   </si>
   <si>
     <t>Liu, Fei; Hu, Mingxing; Huang, Wenbo; Chen, Cindy X. X.; Li, Jinhui</t>
@@ -1955,7 +1937,7 @@
         <v>167</v>
       </c>
       <c r="C56" s="2">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>168</v>
@@ -1969,7 +1951,7 @@
         <v>170</v>
       </c>
       <c r="C57" s="2">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>171</v>
@@ -1983,7 +1965,7 @@
         <v>173</v>
       </c>
       <c r="C58" s="2">
-        <v>2017.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>174</v>
@@ -2025,7 +2007,7 @@
         <v>182</v>
       </c>
       <c r="C61" s="2">
-        <v>2020.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>183</v>
@@ -2039,7 +2021,7 @@
         <v>185</v>
       </c>
       <c r="C62" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>186</v>
@@ -2053,7 +2035,7 @@
         <v>188</v>
       </c>
       <c r="C63" s="2">
-        <v>2022.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>189</v>
@@ -2067,7 +2049,7 @@
         <v>191</v>
       </c>
       <c r="C64" s="2">
-        <v>2019.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>192</v>
@@ -2081,7 +2063,7 @@
         <v>194</v>
       </c>
       <c r="C65" s="2">
-        <v>2015.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>195</v>
@@ -2095,7 +2077,7 @@
         <v>197</v>
       </c>
       <c r="C66" s="2">
-        <v>2011.0</v>
+        <v>2008.0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>198</v>
@@ -2109,7 +2091,7 @@
         <v>200</v>
       </c>
       <c r="C67" s="2">
-        <v>2008.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>201</v>
@@ -2123,7 +2105,7 @@
         <v>203</v>
       </c>
       <c r="C68" s="2">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>204</v>
@@ -2137,7 +2119,7 @@
         <v>206</v>
       </c>
       <c r="C69" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>207</v>
@@ -2179,7 +2161,7 @@
         <v>215</v>
       </c>
       <c r="C72" s="2">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>216</v>
@@ -2193,7 +2175,7 @@
         <v>218</v>
       </c>
       <c r="C73" s="2">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>219</v>
@@ -2221,7 +2203,7 @@
         <v>224</v>
       </c>
       <c r="C75" s="2">
-        <v>2021.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>225</v>
@@ -2235,7 +2217,7 @@
         <v>227</v>
       </c>
       <c r="C76" s="2">
-        <v>2009.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>228</v>
@@ -2319,7 +2301,7 @@
         <v>245</v>
       </c>
       <c r="C82" s="2">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>246</v>
@@ -2333,7 +2315,7 @@
         <v>248</v>
       </c>
       <c r="C83" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>249</v>
@@ -2361,7 +2343,7 @@
         <v>254</v>
       </c>
       <c r="C85" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>255</v>
@@ -2375,7 +2357,7 @@
         <v>257</v>
       </c>
       <c r="C86" s="2">
-        <v>2021.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>258</v>
@@ -2389,7 +2371,7 @@
         <v>260</v>
       </c>
       <c r="C87" s="2">
-        <v>2010.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>261</v>
@@ -2459,7 +2441,7 @@
         <v>275</v>
       </c>
       <c r="C92" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>276</v>
@@ -2501,7 +2483,7 @@
         <v>284</v>
       </c>
       <c r="C95" s="2">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>285</v>
@@ -2529,39 +2511,23 @@
         <v>290</v>
       </c>
       <c r="C97" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98" s="2">
-        <v>2023.0</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="1"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C99" s="2">
-        <v>2022.0</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="1"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="1"/>
@@ -7950,18 +7916,6 @@
       <c r="B997" s="1"/>
       <c r="C997" s="2"/>
       <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
